--- a/public_docs/book-store.xlsx
+++ b/public_docs/book-store.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_8.0.25\htdocs\logans-books\public_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E586C040-B93D-4396-B866-EDC6CBA56B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8ABD5-187F-4DD0-A7DC-71BA34355452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2580" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="12" r:id="rId1"/>
@@ -11245,7 +11245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
@@ -17991,7 +17991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C2967-FCB5-4B04-B200-70D59EFD17A7}">
   <dimension ref="A1:AP148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
